--- a/test/data/xlsx/Präparateliste-latest.xlsx
+++ b/test/data/xlsx/Präparateliste-latest.xlsx
@@ -14,14 +14,16 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles" vbProcedure="false">Sheet1!$2:$4</definedName>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$4:$Q$15</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles" vbProcedure="false">Sheet1!$2:$4</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0" vbProcedure="false">Sheet1!$2:$4</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$4:$Q$15</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Sheet1!$A$4:$Q$15</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="95">
   <si>
     <t>* Das Gültigkeitsdatum entspricht den Angaben auf der Zulassungsbescheinigung. Provisorische Zulassungen, ohne Erneuerung des Gültigkeitsdatums, sind vorbehalten . Alle in der Liste aufgeführten Arzneimittel sind zum Zeitpunkt der Aktualisierung der Liste zugelassen.</t>
   </si>
@@ -41,7 +43,7 @@
     <t>Zulassungsinhaberin</t>
   </si>
   <si>
-    <t>Zul. art   </t>
+    <t>Zul. art</t>
   </si>
   <si>
     <t>IT-Nummer</t>
@@ -244,6 +246,84 @@
   </si>
   <si>
     <t>clarithromycinum 500 mg, arom.: vanillinum, color.: E 104, excipiens pro compresso obducto.</t>
+  </si>
+  <si>
+    <t>SolcoTrichovac, Suspension</t>
+  </si>
+  <si>
+    <t>MEDA Pharmaceuticals Switzerland GmbH</t>
+  </si>
+  <si>
+    <t>Exportzulassung</t>
+  </si>
+  <si>
+    <t>Impfstoffe</t>
+  </si>
+  <si>
+    <t>08.08.</t>
+  </si>
+  <si>
+    <t>J07AX</t>
+  </si>
+  <si>
+    <t>inactivated micro-organisms of selected strains of Lactobacillus acidophilus: L. rhamnosus (3 Stämme)</t>
+  </si>
+  <si>
+    <t>inactivated micro-organisms of selected strains of Lactobacillus acidophilus: L. rhamnosus (3 Stämme) et L. vaginalis (3 Stämme) et L. salivarius (1 Stamm) et L. fermentum (1 Stamm) &gt; 7 x 10^9 U..
+natrii chloridum, conserv.: phenolum max. 1.25 mg, aqua ad iniectabilia q.s. ad suspensionem pro 0.5 ml.</t>
+  </si>
+  <si>
+    <t>Immunstimulans bei Trichomoniasis und unspezifischen Vaginitiden, ab dem vollendeten 14. Lebensjahr</t>
+  </si>
+  <si>
+    <t>SolcoTrichovac, Lyophilisat</t>
+  </si>
+  <si>
+    <t>Praeparatio cryodesiccata: inactivated micro-organisms of selected strains of Lactobacillus acidophilus: L. rhamnosus (3 Stämme) et L. vaginalis (3 Stämme) et L. salivarius (1 Stamm) et L. fermentum (1 Stamm) &gt; 7 x 10^9 U..
+polygelinum, natrii chloridum, conserv.: phenolum max. 0.2 mg.
+Solvens: aqua ad iniectabilia q.s. ad suspensionem pro 0.5 ml.</t>
+  </si>
+  <si>
+    <t>Redimune 1 g, Trockensubstanz mit Solvens</t>
+  </si>
+  <si>
+    <t>CSL Behring AG</t>
+  </si>
+  <si>
+    <t>08.09.</t>
+  </si>
+  <si>
+    <t>J06BA02</t>
+  </si>
+  <si>
+    <t>immunoglobulinum humanum normale</t>
+  </si>
+  <si>
+    <t>Praeparatio cryodesiccata: immunoglobulinum humanum normale 1 g, saccharum, pro vitro.
+Solvens: natrii chloridi solutio 9 g/L 33 ml.</t>
+  </si>
+  <si>
+    <t>Immunmodulation bei idiopathischer thrombozytopenischer Purpura (ITP)
+Immunmodulation bei Kawasaki-Syndrom
+allogene Knochenmarktransplantation
+Substitutionstherapie bei primären Immunmangelkrankheiten
+Substitutionstherapie bei Myelom oder chronisch-lymphatischer Leukämie mit schwerer sekundärer Hypogammaglobulinämie und rezidivierenden Infektionen
+Immunmodulation bei Guillain-Barré Syndrom (GBS)
+Substitutionstherapie bei Kindern mit kongenitalem AIDS und rezidivierenden Infektionen</t>
+  </si>
+  <si>
+    <t>Redimune 3 g, Trockensubstanz mit Solvens</t>
+  </si>
+  <si>
+    <t>Praeparatio cryodesiccata: immunoglobulinum humanum normale 3 g, saccharum, pro vitro.
+Solvens: natrii chloridi solutio 9 g/L 100 ml.</t>
+  </si>
+  <si>
+    <t>Redimune 12 g, Trockensubstanz mit Solvens</t>
+  </si>
+  <si>
+    <t>praeparatio sicca: immunoglobulinum humanum normale 12 g, saccharum, pro vitro.
+Solvens: natrii chloridi solutio 9 g/L 200 ml.</t>
   </si>
 </sst>
 </file>
@@ -252,9 +332,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
-    <numFmt numFmtId="165" formatCode="00000"/>
-    <numFmt numFmtId="166" formatCode="DD/MM/YY;@"/>
-    <numFmt numFmtId="167" formatCode="DD/MM/YY"/>
+    <numFmt numFmtId="165" formatCode="DD/MM/YY;@"/>
+    <numFmt numFmtId="166" formatCode="DD/MM/YY"/>
+    <numFmt numFmtId="167" formatCode="00000"/>
     <numFmt numFmtId="168" formatCode="@"/>
   </numFmts>
   <fonts count="8">
@@ -335,7 +415,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -359,16 +439,16 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="41">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -381,16 +461,8 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -409,7 +481,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -421,71 +493,55 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="90" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="90" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="90" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="90" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="90" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="90" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="90" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="90" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="90" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="90" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -501,26 +557,67 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Standard 2" xfId="20" builtinId="54" customBuiltin="true"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -530,15 +627,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>150840</xdr:colOff>
+      <xdr:colOff>177840</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>29160</xdr:rowOff>
+      <xdr:rowOff>20160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1160640</xdr:colOff>
+      <xdr:colOff>1187280</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>572040</xdr:rowOff>
+      <xdr:rowOff>562680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -547,14 +644,12 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
+        <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="150840" y="29160"/>
-          <a:ext cx="1776240" cy="542880"/>
+          <a:off x="177840" y="20160"/>
+          <a:ext cx="1775880" cy="542520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -572,696 +667,957 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
-    <tabColor rgb="00FFFFFF"/>
+    <tabColor rgb="FFFFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q15"/>
+  <dimension ref="A1:T20"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="false" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="4" topLeftCell="A12417" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
+      <selection pane="bottomLeft" activeCell="A16" activeCellId="0" sqref="16:20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="6.00510204081633"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="4.86224489795918"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="4.86224489795918"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="47.280612244898"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="3" width="28.4183673469388"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="3" width="17.8571428571429"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="3" width="8.56632653061224"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="3" width="10.7091836734694"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="4" width="25.2908163265306"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="4" width="6.00510204081633"/>
-    <col collapsed="false" hidden="false" max="13" min="11" style="5" width="10.7091836734694"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="6" width="49.2908163265306"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="7" width="36.5714285714286"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="7" width="46.5714285714286"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="7" width="20.9948979591837"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="28.4183673469388"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="17.8571428571429"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="8.56632653061224"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="10.7091836734694"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="3" width="25.2908163265306"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="3" width="6.00510204081633"/>
+    <col collapsed="false" hidden="false" max="13" min="11" style="4" width="10.7091836734694"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="49.2908163265306"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="36.5714285714286"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="46.5714285714286"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="20.9948979591837"/>
     <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="6.85714285714286"/>
   </cols>
   <sheetData>
-    <row r="1" s="8" customFormat="true" ht="63" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1" s="5" customFormat="true" ht="63" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="0"/>
-      <c r="O2" s="0"/>
-      <c r="P2" s="0"/>
-      <c r="Q2" s="0"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
       <c r="G3" s="0"/>
       <c r="H3" s="0"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="17"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="13"/>
       <c r="M3" s="0"/>
-      <c r="N3" s="0"/>
-      <c r="O3" s="0"/>
-      <c r="P3" s="0"/>
-      <c r="Q3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="59.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="E4" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="F4" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="20" t="s">
+      <c r="G4" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="23" t="s">
+      <c r="H4" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="24" t="s">
+      <c r="I4" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="25" t="s">
+      <c r="J4" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="26" t="s">
+      <c r="K4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="27" t="s">
+      <c r="L4" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="M4" s="26" t="s">
+      <c r="M4" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="N4" s="28" t="s">
+      <c r="N4" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="O4" s="29" t="s">
+      <c r="O4" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="P4" s="30" t="s">
+      <c r="P4" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="Q4" s="30" t="s">
+      <c r="Q4" s="23" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="31" t="n">
+      <c r="A5" s="24" t="n">
         <v>274</v>
       </c>
-      <c r="B5" s="32" t="n">
+      <c r="B5" s="25" t="n">
         <v>1</v>
       </c>
-      <c r="C5" s="33" t="s">
+      <c r="C5" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="34" t="s">
+      <c r="D5" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="34" t="s">
+      <c r="F5" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="34" t="s">
+      <c r="G5" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="33" t="s">
+      <c r="H5" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="I5" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="J5" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="K5" s="35" t="n">
+      <c r="I5" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="K5" s="28" t="n">
         <v>40294</v>
       </c>
-      <c r="L5" s="35" t="n">
+      <c r="L5" s="28" t="n">
         <v>40294</v>
       </c>
-      <c r="M5" s="35" t="n">
+      <c r="M5" s="28" t="n">
         <v>42119</v>
       </c>
-      <c r="N5" s="36" t="s">
+      <c r="N5" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="O5" s="37" t="s">
+      <c r="O5" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="P5" s="37" t="s">
+      <c r="P5" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="Q5" s="37"/>
+      <c r="Q5" s="25"/>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="31" t="n">
+      <c r="A6" s="24" t="n">
         <v>277</v>
       </c>
-      <c r="B6" s="32" t="n">
+      <c r="B6" s="25" t="n">
         <v>1</v>
       </c>
-      <c r="C6" s="33" t="s">
+      <c r="C6" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="34" t="s">
+      <c r="D6" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="34" t="s">
+      <c r="F6" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="34" t="s">
+      <c r="G6" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="33" t="s">
+      <c r="H6" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="J6" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="K6" s="35" t="n">
+      <c r="I6" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="K6" s="28" t="n">
         <v>40294</v>
       </c>
-      <c r="L6" s="35" t="n">
+      <c r="L6" s="28" t="n">
         <v>40294</v>
       </c>
-      <c r="M6" s="35" t="n">
+      <c r="M6" s="28" t="n">
         <v>42119</v>
       </c>
-      <c r="N6" s="36" t="s">
+      <c r="N6" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="O6" s="37" t="s">
+      <c r="O6" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="P6" s="37" t="s">
+      <c r="P6" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="Q6" s="37"/>
+      <c r="Q6" s="25"/>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="31" t="n">
+      <c r="A7" s="24" t="n">
         <v>278</v>
       </c>
-      <c r="B7" s="32" t="n">
+      <c r="B7" s="25" t="n">
         <v>1</v>
       </c>
-      <c r="C7" s="33" t="s">
+      <c r="C7" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="34" t="s">
+      <c r="D7" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="34" t="s">
+      <c r="F7" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="34" t="s">
+      <c r="G7" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="33" t="s">
+      <c r="H7" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="I7" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="J7" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="K7" s="35" t="n">
+      <c r="I7" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" s="28" t="n">
         <v>40294</v>
       </c>
-      <c r="L7" s="35" t="n">
+      <c r="L7" s="28" t="n">
         <v>40294</v>
       </c>
-      <c r="M7" s="35" t="n">
+      <c r="M7" s="28" t="n">
         <v>42119</v>
       </c>
-      <c r="N7" s="36" t="s">
+      <c r="N7" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="O7" s="37" t="s">
+      <c r="O7" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="P7" s="37" t="s">
+      <c r="P7" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="Q7" s="37"/>
+      <c r="Q7" s="25"/>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="31" t="n">
+      <c r="A8" s="24" t="n">
         <v>279</v>
       </c>
-      <c r="B8" s="32" t="n">
+      <c r="B8" s="25" t="n">
         <v>1</v>
       </c>
-      <c r="C8" s="33" t="s">
+      <c r="C8" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="34" t="s">
+      <c r="D8" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="34" t="s">
+      <c r="F8" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="34" t="s">
+      <c r="G8" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="33" t="s">
+      <c r="H8" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="I8" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="J8" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="K8" s="35" t="n">
+      <c r="I8" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" s="28" t="n">
         <v>40294</v>
       </c>
-      <c r="L8" s="35" t="n">
+      <c r="L8" s="28" t="n">
         <v>40294</v>
       </c>
-      <c r="M8" s="35" t="n">
+      <c r="M8" s="28" t="n">
         <v>42119</v>
       </c>
-      <c r="N8" s="36" t="s">
+      <c r="N8" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="O8" s="37" t="s">
+      <c r="O8" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="P8" s="37" t="s">
+      <c r="P8" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="Q8" s="37"/>
+      <c r="Q8" s="25"/>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="31" t="n">
+      <c r="A9" s="24" t="n">
         <v>280</v>
       </c>
-      <c r="B9" s="32" t="n">
+      <c r="B9" s="25" t="n">
         <v>1</v>
       </c>
-      <c r="C9" s="33" t="s">
+      <c r="C9" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="34" t="s">
+      <c r="D9" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="34" t="s">
+      <c r="F9" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="34" t="s">
+      <c r="G9" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="33" t="s">
+      <c r="H9" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="I9" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="J9" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="K9" s="35" t="n">
+      <c r="I9" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="J9" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="K9" s="28" t="n">
         <v>40294</v>
       </c>
-      <c r="L9" s="35" t="n">
+      <c r="L9" s="28" t="n">
         <v>40294</v>
       </c>
-      <c r="M9" s="35" t="n">
+      <c r="M9" s="28" t="n">
         <v>42119</v>
       </c>
-      <c r="N9" s="36" t="s">
+      <c r="N9" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="O9" s="37" t="s">
+      <c r="O9" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="P9" s="37" t="s">
+      <c r="P9" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="Q9" s="37"/>
+      <c r="Q9" s="25"/>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="31" t="n">
+      <c r="A10" s="24" t="n">
         <v>282</v>
       </c>
-      <c r="B10" s="32" t="n">
+      <c r="B10" s="25" t="n">
         <v>1</v>
       </c>
-      <c r="C10" s="33" t="s">
+      <c r="C10" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="34" t="s">
+      <c r="D10" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="34" t="s">
+      <c r="F10" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G10" s="34" t="s">
+      <c r="G10" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="H10" s="33" t="s">
+      <c r="H10" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="I10" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="J10" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="K10" s="35" t="n">
+      <c r="I10" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="J10" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="K10" s="28" t="n">
         <v>40294</v>
       </c>
-      <c r="L10" s="35" t="n">
+      <c r="L10" s="28" t="n">
         <v>40294</v>
       </c>
-      <c r="M10" s="35" t="n">
+      <c r="M10" s="28" t="n">
         <v>42119</v>
       </c>
-      <c r="N10" s="36" t="s">
+      <c r="N10" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="O10" s="37" t="s">
+      <c r="O10" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="P10" s="37" t="s">
+      <c r="P10" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="Q10" s="37"/>
+      <c r="Q10" s="25"/>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="31" t="n">
+      <c r="A11" s="24" t="n">
         <v>284</v>
       </c>
-      <c r="B11" s="32" t="n">
+      <c r="B11" s="25" t="n">
         <v>1</v>
       </c>
-      <c r="C11" s="33" t="s">
+      <c r="C11" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="34" t="s">
+      <c r="D11" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="34" t="s">
+      <c r="F11" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="34" t="s">
+      <c r="G11" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="H11" s="33" t="s">
+      <c r="H11" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="I11" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="J11" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="K11" s="35" t="n">
+      <c r="I11" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="J11" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="K11" s="28" t="n">
         <v>40294</v>
       </c>
-      <c r="L11" s="35" t="n">
+      <c r="L11" s="28" t="n">
         <v>40294</v>
       </c>
-      <c r="M11" s="35" t="n">
+      <c r="M11" s="28" t="n">
         <v>42119</v>
       </c>
-      <c r="N11" s="36" t="s">
+      <c r="N11" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="O11" s="37" t="s">
+      <c r="O11" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="P11" s="37" t="s">
+      <c r="P11" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="Q11" s="37"/>
+      <c r="Q11" s="25"/>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="31" t="n">
+      <c r="A12" s="24" t="n">
         <v>65224</v>
       </c>
-      <c r="B12" s="32" t="n">
+      <c r="B12" s="25" t="n">
         <v>1</v>
       </c>
-      <c r="C12" s="33" t="s">
+      <c r="C12" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="D12" s="34" t="s">
+      <c r="D12" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="34" t="s">
+      <c r="F12" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="G12" s="34" t="s">
+      <c r="G12" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="H12" s="33" t="s">
+      <c r="H12" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="I12" s="33" t="s">
+      <c r="I12" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="J12" s="33" t="s">
+      <c r="J12" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="K12" s="35" t="n">
+      <c r="K12" s="28" t="n">
         <v>41740</v>
       </c>
-      <c r="L12" s="35" t="n">
+      <c r="L12" s="28" t="n">
         <v>41740</v>
       </c>
-      <c r="M12" s="35" t="n">
+      <c r="M12" s="28" t="n">
         <v>43565</v>
       </c>
-      <c r="N12" s="36" t="s">
+      <c r="N12" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="O12" s="37" t="s">
+      <c r="O12" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="P12" s="37" t="s">
+      <c r="P12" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="Q12" s="37"/>
+      <c r="Q12" s="25"/>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="31" t="n">
+      <c r="A13" s="24" t="n">
         <v>65228</v>
       </c>
-      <c r="B13" s="32" t="n">
+      <c r="B13" s="25" t="n">
         <v>1</v>
       </c>
-      <c r="C13" s="33" t="s">
+      <c r="C13" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="D13" s="34" t="s">
+      <c r="D13" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F13" s="34" t="s">
+      <c r="F13" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="G13" s="34" t="s">
+      <c r="G13" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="H13" s="33" t="s">
+      <c r="H13" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="I13" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="J13" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="K13" s="35" t="n">
+      <c r="I13" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="J13" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="K13" s="28" t="n">
         <v>41703</v>
       </c>
-      <c r="L13" s="35" t="n">
+      <c r="L13" s="28" t="n">
         <v>41703</v>
       </c>
-      <c r="M13" s="35" t="n">
+      <c r="M13" s="28" t="n">
         <v>43528</v>
       </c>
-      <c r="N13" s="36" t="s">
+      <c r="N13" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="O13" s="37" t="s">
+      <c r="O13" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="P13" s="37" t="s">
+      <c r="P13" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="Q13" s="37"/>
+      <c r="Q13" s="25"/>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="31" t="n">
+      <c r="A14" s="24" t="n">
         <v>65230</v>
       </c>
-      <c r="B14" s="32" t="n">
+      <c r="B14" s="25" t="n">
         <v>1</v>
       </c>
-      <c r="C14" s="33" t="s">
+      <c r="C14" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="D14" s="34" t="s">
+      <c r="D14" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F14" s="34" t="s">
+      <c r="F14" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="G14" s="34" t="s">
+      <c r="G14" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="H14" s="33" t="s">
+      <c r="H14" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="I14" s="33" t="s">
+      <c r="I14" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="J14" s="33" t="s">
+      <c r="J14" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="K14" s="35" t="n">
+      <c r="K14" s="28" t="n">
         <v>41695</v>
       </c>
-      <c r="L14" s="35" t="n">
+      <c r="L14" s="28" t="n">
         <v>41695</v>
       </c>
-      <c r="M14" s="35" t="n">
+      <c r="M14" s="28" t="n">
         <v>43520</v>
       </c>
-      <c r="N14" s="36" t="s">
+      <c r="N14" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="O14" s="37" t="s">
+      <c r="O14" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="P14" s="37" t="s">
+      <c r="P14" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="Q14" s="37"/>
+      <c r="Q14" s="25"/>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="n">
+      <c r="A15" s="29" t="n">
         <v>65230</v>
       </c>
-      <c r="B15" s="2" t="n">
+      <c r="B15" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C15" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="G15" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="H15" s="4" t="s">
+      <c r="H15" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="I15" s="4" t="s">
+      <c r="I15" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="J15" s="4" t="s">
+      <c r="J15" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="K15" s="5" t="n">
+      <c r="K15" s="30" t="n">
         <v>41695</v>
       </c>
-      <c r="L15" s="5" t="n">
+      <c r="L15" s="30" t="n">
         <v>41695</v>
       </c>
-      <c r="M15" s="5" t="n">
+      <c r="M15" s="30" t="n">
         <v>43520</v>
       </c>
-      <c r="N15" s="6" t="s">
+      <c r="N15" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="O15" s="7" t="s">
+      <c r="O15" s="0" t="s">
         <v>72</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="P15" s="0" t="s">
         <v>70</v>
       </c>
+    </row>
+    <row r="16" s="40" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="31" t="n">
+        <v>437</v>
+      </c>
+      <c r="B16" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D16" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="E16" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="F16" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="G16" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="H16" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="I16" s="34" t="n">
+        <v>29038</v>
+      </c>
+      <c r="J16" s="34" t="n">
+        <v>29038</v>
+      </c>
+      <c r="K16" s="34" t="n">
+        <v>44316</v>
+      </c>
+      <c r="L16" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="M16" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="N16" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="O16" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="P16" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q16" s="38"/>
+      <c r="R16" s="39"/>
+      <c r="S16" s="0"/>
+      <c r="T16" s="32"/>
+    </row>
+    <row r="17" s="40" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="31" t="n">
+        <v>466</v>
+      </c>
+      <c r="B17" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="D17" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="E17" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="F17" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="G17" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="H17" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="I17" s="34" t="n">
+        <v>29532</v>
+      </c>
+      <c r="J17" s="34" t="n">
+        <v>29532</v>
+      </c>
+      <c r="K17" s="34" t="n">
+        <v>44316</v>
+      </c>
+      <c r="L17" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="M17" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="N17" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="O17" s="37" t="s">
+        <v>83</v>
+      </c>
+      <c r="P17" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q17" s="38"/>
+      <c r="R17" s="39"/>
+      <c r="S17" s="0"/>
+      <c r="T17" s="32"/>
+    </row>
+    <row r="18" s="40" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="31" t="n">
+        <v>500</v>
+      </c>
+      <c r="B18" s="32" t="n">
+        <v>4</v>
+      </c>
+      <c r="C18" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="D18" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="E18" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="F18" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="G18" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="H18" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="I18" s="34" t="n">
+        <v>36892</v>
+      </c>
+      <c r="J18" s="34" t="n">
+        <v>36892</v>
+      </c>
+      <c r="K18" s="34" t="n">
+        <v>42794</v>
+      </c>
+      <c r="L18" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="M18" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="N18" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="O18" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="P18" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q18" s="38"/>
+      <c r="R18" s="39"/>
+      <c r="S18" s="0"/>
+      <c r="T18" s="32"/>
+    </row>
+    <row r="19" s="40" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="31" t="n">
+        <v>500</v>
+      </c>
+      <c r="B19" s="32" t="n">
+        <v>5</v>
+      </c>
+      <c r="C19" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="D19" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="E19" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="F19" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="G19" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="H19" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="I19" s="34" t="n">
+        <v>36892</v>
+      </c>
+      <c r="J19" s="34" t="n">
+        <v>36892</v>
+      </c>
+      <c r="K19" s="34" t="n">
+        <v>42794</v>
+      </c>
+      <c r="L19" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="M19" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="N19" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="O19" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="P19" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q19" s="38"/>
+      <c r="R19" s="39"/>
+      <c r="S19" s="0"/>
+      <c r="T19" s="32"/>
+    </row>
+    <row r="20" s="40" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="31" t="n">
+        <v>500</v>
+      </c>
+      <c r="B20" s="32" t="n">
+        <v>7</v>
+      </c>
+      <c r="C20" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="D20" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="E20" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="F20" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="G20" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="H20" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="I20" s="34" t="n">
+        <v>36892</v>
+      </c>
+      <c r="J20" s="34" t="n">
+        <v>36892</v>
+      </c>
+      <c r="K20" s="34" t="n">
+        <v>42794</v>
+      </c>
+      <c r="L20" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="M20" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="N20" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="O20" s="37" t="s">
+        <v>94</v>
+      </c>
+      <c r="P20" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q20" s="38"/>
+      <c r="R20" s="39"/>
+      <c r="S20" s="0"/>
+      <c r="T20" s="32"/>
     </row>
   </sheetData>
   <autoFilter ref="A4:Q15"/>
-  <mergeCells count="2">
-    <mergeCell ref="1:1"/>
+  <mergeCells count="1">
     <mergeCell ref="A3:D3"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
